--- a/docs/StructureDefinition-Encounter-maternity.xlsx
+++ b/docs/StructureDefinition-Encounter-maternity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -555,7 +555,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Father, Mother</t>
+    <t>Vital Records Role</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/vr-common-library/ValueSet/ValueSet-role-vr</t>
@@ -1206,7 +1206,7 @@
     <t>Encounter.participant:attendant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/vr-common-library/StructureDefinition/Practitioner-vr)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/bfdr/StructureDefinition/Practitioner-birth-attendant)
 </t>
   </si>
   <si>
@@ -1320,6 +1320,10 @@
   </si>
   <si>
     <t>Encounter.participant:certifier.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/bfdr/StructureDefinition/Practitioner-birth-certifier)
+</t>
   </si>
   <si>
     <t>Encounter.appointment</t>
@@ -10058,7 +10062,7 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>363</v>
@@ -10144,10 +10148,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10170,13 +10174,13 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10227,7 +10231,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10245,21 +10249,21 @@
         <v>336</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10285,13 +10289,13 @@
         <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10341,7 +10345,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10356,24 +10360,24 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10396,16 +10400,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10455,7 +10459,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10470,28 +10474,28 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10513,13 +10517,13 @@
         <v>166</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10548,10 +10552,10 @@
         <v>112</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10569,7 +10573,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10584,28 +10588,28 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10624,16 +10628,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10683,7 +10687,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10698,24 +10702,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10741,10 +10745,10 @@
         <v>255</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10795,7 +10799,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10813,7 +10817,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10824,10 +10828,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10936,10 +10940,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11050,10 +11054,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11166,14 +11170,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11192,16 +11196,16 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11251,7 +11255,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>88</v>
@@ -11266,24 +11270,24 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11309,10 +11313,10 @@
         <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11342,10 +11346,10 @@
         <v>112</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11363,7 +11367,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11392,10 +11396,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11418,13 +11422,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11475,7 +11479,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11493,7 +11497,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11504,10 +11508,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11530,16 +11534,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11589,7 +11593,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11607,7 +11611,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11618,10 +11622,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11647,13 +11651,13 @@
         <v>255</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11703,7 +11707,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11721,7 +11725,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11732,10 +11736,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11844,10 +11848,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11958,10 +11962,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12074,10 +12078,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12103,10 +12107,10 @@
         <v>182</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12157,7 +12161,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12181,15 +12185,15 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12212,13 +12216,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12269,7 +12273,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12287,7 +12291,7 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12298,10 +12302,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12327,10 +12331,10 @@
         <v>166</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12360,10 +12364,10 @@
         <v>112</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12381,7 +12385,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12399,21 +12403,21 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12439,10 +12443,10 @@
         <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12472,10 +12476,10 @@
         <v>303</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -12493,7 +12497,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12517,15 +12521,15 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12551,16 +12555,16 @@
         <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12588,10 +12592,10 @@
         <v>303</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -12609,7 +12613,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12627,21 +12631,21 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12667,10 +12671,10 @@
         <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12700,10 +12704,10 @@
         <v>112</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12721,7 +12725,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12739,21 +12743,21 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12779,10 +12783,10 @@
         <v>166</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12812,10 +12816,10 @@
         <v>112</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -12833,7 +12837,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12851,21 +12855,21 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12888,13 +12892,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12945,7 +12949,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12963,21 +12967,21 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13003,10 +13007,10 @@
         <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13036,10 +13040,10 @@
         <v>112</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13057,7 +13061,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13075,21 +13079,21 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13115,13 +13119,13 @@
         <v>255</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13171,7 +13175,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13189,7 +13193,7 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13200,10 +13204,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13312,10 +13316,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13426,10 +13430,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13542,10 +13546,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13568,13 +13572,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13625,7 +13629,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13640,24 +13644,24 @@
         <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13683,7 +13687,7 @@
         <v>148</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>150</v>
@@ -13766,10 +13770,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13880,10 +13884,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13909,13 +13913,13 @@
         <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13965,7 +13969,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13974,7 +13978,7 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>100</v>
@@ -13994,10 +13998,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14023,13 +14027,13 @@
         <v>102</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14058,10 +14062,10 @@
         <v>170</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14079,7 +14083,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14108,10 +14112,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14137,13 +14141,13 @@
         <v>182</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14193,7 +14197,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14211,21 +14215,21 @@
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14251,13 +14255,13 @@
         <v>148</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14307,7 +14311,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14336,10 +14340,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14365,13 +14369,13 @@
         <v>108</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14400,10 +14404,10 @@
         <v>198</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -14421,7 +14425,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14439,7 +14443,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
@@ -14450,10 +14454,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14479,13 +14483,13 @@
         <v>166</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14514,10 +14518,10 @@
         <v>112</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -14535,7 +14539,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14564,10 +14568,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14593,10 +14597,10 @@
         <v>230</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14647,7 +14651,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14676,10 +14680,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14702,13 +14706,13 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14759,7 +14763,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14777,21 +14781,21 @@
         <v>365</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14814,16 +14818,16 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14873,7 +14877,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14888,10 +14892,10 @@
         <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-Encounter-maternity.xlsx
+++ b/docs/StructureDefinition-Encounter-maternity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter-maternity.xlsx
+++ b/docs/StructureDefinition-Encounter-maternity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
